--- a/release-notes/2024-11/closed-bugs-sle-2024-11.xlsx
+++ b/release-notes/2024-11/closed-bugs-sle-2024-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emerson.sharepoint.com/sites/TM-IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2024/2025 Q1 (v.25.0)(releasing out of Cycle 24.C4)/Common docs/Release Notes/SLE 2024-11 Release Notes - November/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2024-11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{0357FC32-4DB0-FA47-B55E-60093BEFF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75172AC4-CE13-46B4-BA5F-2403E4814770}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8B2784-F049-AF42-885F-6579CE66BA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20400" yWindow="0" windowWidth="15440" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Navigating via Browser "Back" history from any details page does not reload the results grid under the page</t>
   </si>
   <si>
-    <t>Steps Grid | Sorting enabled for Measurement status(icon) column</t>
-  </si>
-  <si>
     <t>Login | Redirect url gets trimmed incorrectly after logging in</t>
   </si>
   <si>
@@ -110,19 +107,22 @@
     <t>sl-k8s-hub CVEs</t>
   </si>
   <si>
-    <t>[Systems Management UI] Double pressing next from source, duplicates the "Review" page</t>
-  </si>
-  <si>
     <t>Cannot define file properties that contain a \ character. Error code 400.</t>
   </si>
   <si>
     <t>[Jupyterhub] When `hub.networkPolicy.allowExternalAccess` is false, ServiceRegistry can't reach jupyterhub</t>
   </si>
   <si>
-    <t>File preview returns unauthorized if user doesn't instantly perform the action after selection</t>
-  </si>
-  <si>
-    <t>"browse for files" in SLE only allows to select one file</t>
+    <t>Steps Grid | Sorting incorrectly enabled for Measurement status(icon) column</t>
+  </si>
+  <si>
+    <t>[Systems Management UI] Double pressing next in Install Sotware modal from source, duplicates the "Review" page</t>
+  </si>
+  <si>
+    <t>File preview returns unauthorized when user waits between selection and preview operations</t>
+  </si>
+  <si>
+    <t>Upload files workflow: "browse for files" in SLE only allows to select one file</t>
   </si>
 </sst>
 </file>
@@ -973,16 +973,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="110.375" customWidth="1"/>
+    <col min="2" max="2" width="110.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2867275</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2896812</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2899476</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2909387</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2908159</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2912078</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2902882</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2867278</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2867282</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2867299</v>
       </c>
@@ -1103,150 +1103,150 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2911778</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2921382</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2902891</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2900570</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2859252</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2861019</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2899736</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2907645</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2906532</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2901953</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2899498</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2859164</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2913349</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2909535</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2807459</v>
       </c>
@@ -1268,83 +1268,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
@@ -1357,15 +1357,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58f385c17140d35cbd71f1f19d1bc6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6fea239938238ce97a7c0b11cdae990" ns2:_="" ns3:_="">
     <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
@@ -1614,6 +1605,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1626,14 +1626,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDD13E7E-916C-4710-89E9-937C762EA783}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1648,6 +1640,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
